--- a/ATM_python_file.xlsx
+++ b/ATM_python_file.xlsx
@@ -32,6 +32,37 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -39,6 +70,15 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -48,28 +88,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,38 +111,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,10 +124,23 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +154,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,6 +166,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,19 +183,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,13 +297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,13 +315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,127 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +374,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,30 +408,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,20 +429,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,130 +497,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1066,10 +1066,10 @@
         <v>123456789</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4567</v>
+        <v>1234</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>480</v>
+        <v>2200</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
